--- a/docs/Resources/Guides/Payeezy/Commerce_Hub_Required_API_Elements.xlsx
+++ b/docs/Resources/Guides/Payeezy/Commerce_Hub_Required_API_Elements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fchxk57\Documents\Merchant Migration Playbook Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389DD8B7-35AB-4157-B100-113BF75B7021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C30BA6-2076-4B3B-A437-732855599223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12285" yWindow="-19950" windowWidth="24195" windowHeight="17805" xr2:uid="{B69D5D71-9262-4199-81A3-D802137371B9}"/>
+    <workbookView xWindow="28680" yWindow="-5415" windowWidth="29040" windowHeight="15840" xr2:uid="{B69D5D71-9262-4199-81A3-D802137371B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Req Element by Transaction Type" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="39">
   <si>
     <t>Transaction Type</t>
   </si>
@@ -342,6 +342,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -349,9 +352,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -671,11 +671,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA4324A-74DC-4458-BE2C-EBE3A594899E}">
-  <dimension ref="B2:F60"/>
+  <dimension ref="B2:F65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -694,7 +694,7 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="2:6" ht="19" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="12" t="s">
@@ -707,7 +707,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -720,7 +720,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="15"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="9" t="s">
         <v>3</v>
       </c>
@@ -731,7 +731,7 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="15"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="9" t="s">
         <v>4</v>
       </c>
@@ -742,7 +742,7 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="15"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="9" t="s">
         <v>5</v>
       </c>
@@ -753,7 +753,7 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="15"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="9" t="s">
         <v>6</v>
       </c>
@@ -764,7 +764,7 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="15"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
@@ -775,7 +775,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="15"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="9"/>
       <c r="D10" s="5" t="s">
         <v>6</v>
@@ -784,7 +784,7 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="15"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="9"/>
       <c r="D11" s="5" t="s">
         <v>16</v>
@@ -793,7 +793,7 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="15"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="9"/>
       <c r="D12" s="5" t="s">
         <v>17</v>
@@ -802,7 +802,7 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="16"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="10"/>
       <c r="D13" s="6" t="s">
         <v>7</v>
@@ -811,7 +811,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -824,7 +824,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B15" s="15"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="9" t="s">
         <v>3</v>
       </c>
@@ -835,7 +835,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="15"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="9" t="s">
         <v>4</v>
       </c>
@@ -846,7 +846,7 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="15"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="9" t="s">
         <v>5</v>
       </c>
@@ -857,7 +857,7 @@
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="15"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="9" t="s">
         <v>6</v>
       </c>
@@ -868,7 +868,7 @@
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="15"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="9" t="s">
         <v>7</v>
       </c>
@@ -879,7 +879,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="15"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="11"/>
       <c r="D20" s="5" t="s">
         <v>6</v>
@@ -888,7 +888,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="15"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="11"/>
       <c r="D21" s="5" t="s">
         <v>16</v>
@@ -897,7 +897,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="15"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="11"/>
       <c r="D22" s="5" t="s">
         <v>17</v>
@@ -906,7 +906,7 @@
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="16"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="13"/>
       <c r="D23" s="6" t="s">
         <v>7</v>
@@ -915,381 +915,436 @@
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B25" s="15"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="5"/>
+      <c r="D25" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B26" s="15"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B27" s="15"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="5"/>
+      <c r="D27" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" s="16"/>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="6"/>
+      <c r="D28" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B29" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>2</v>
+      <c r="B29" s="16"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B30" s="15"/>
-      <c r="C30" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="B30" s="16"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B31" s="15"/>
-      <c r="C31" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="B31" s="16"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="5" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B32" s="15"/>
-      <c r="C32" s="9" t="s">
-        <v>5</v>
-      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="5" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B33" s="15"/>
-      <c r="C33" s="9" t="s">
-        <v>6</v>
-      </c>
+    <row r="33" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="16"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B34" s="15"/>
-      <c r="C34" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>15</v>
+      <c r="B34" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B35" s="15"/>
-      <c r="C35" s="9"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="D35" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B36" s="15"/>
-      <c r="C36" s="9"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="D36" s="5" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B37" s="15"/>
-      <c r="C37" s="9"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="D37" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B38" s="15"/>
-      <c r="C38" s="9"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="D38" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B39" s="16"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="6" t="s">
-        <v>18</v>
+      <c r="C39" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B40" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>4</v>
+      <c r="B40" s="16"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B41" s="15"/>
-      <c r="C41" s="9" t="s">
-        <v>5</v>
-      </c>
+      <c r="B41" s="16"/>
+      <c r="C41" s="9"/>
       <c r="D41" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B42" s="15"/>
-      <c r="C42" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="B42" s="16"/>
+      <c r="C42" s="9"/>
       <c r="D42" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B43" s="15"/>
-      <c r="C43" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="B43" s="16"/>
+      <c r="C43" s="9"/>
       <c r="D43" s="5" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B44" s="15"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="5" t="s">
-        <v>6</v>
+    <row r="44" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="17"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B45" s="15"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="5" t="s">
-        <v>16</v>
+      <c r="B45" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B46" s="15"/>
-      <c r="C46" s="11"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="D46" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B47" s="15"/>
-      <c r="C47" s="11"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="D47" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B48" s="16"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="6" t="s">
+      <c r="C48" s="9" t="s">
         <v>10</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B49" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>2</v>
+      <c r="B49" s="16"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B50" s="15"/>
-      <c r="C50" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="B50" s="16"/>
+      <c r="C50" s="11"/>
       <c r="D50" s="5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B51" s="15"/>
-      <c r="C51" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="B51" s="16"/>
+      <c r="C51" s="11"/>
       <c r="D51" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B52" s="15"/>
-      <c r="C52" s="9" t="s">
-        <v>5</v>
-      </c>
+      <c r="B52" s="16"/>
+      <c r="C52" s="11"/>
       <c r="D52" s="5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B53" s="15"/>
-      <c r="C53" s="9" t="s">
+    <row r="53" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="17"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B54" s="15"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="5" t="s">
-        <v>15</v>
+      <c r="B54" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B55" s="15"/>
-      <c r="C55" s="11"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="D55" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B56" s="15"/>
-      <c r="C56" s="11"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="D56" s="5" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B57" s="15"/>
-      <c r="C57" s="11"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="D57" s="5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B58" s="16"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="6" t="s">
+      <c r="C58" s="9" t="s">
         <v>10</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B60" s="3"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="3"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
     </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B61" s="16"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B62" s="16"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B63" s="17"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B65" s="3"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B49:B58"/>
+    <mergeCell ref="B54:B63"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="B4:B13"/>
     <mergeCell ref="B14:B23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B29:B39"/>
-    <mergeCell ref="B40:B48"/>
+    <mergeCell ref="B24:B33"/>
+    <mergeCell ref="B34:B44"/>
+    <mergeCell ref="B45:B53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1466,7 +1521,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1D85E02-9715-4786-B239-90FD9878EA86}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A07F1C62-480C-4323-9D57-F55D8CDC3323}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
